--- a/metadata/trait_categories/trait_categories_glossary.xlsx
+++ b/metadata/trait_categories/trait_categories_glossary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\PhD_RARR\RProjects\GitHub\GBTD_litrev_traitcat_cleaning\metadata\trait_categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451EE45-BE56-4CBA-9C2D-6DB853DBA024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53596AB-C60D-4D29-A4F9-11E47EDD0516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{906A0D81-1B12-4C78-A7F1-96A148B9F5E1}"/>
   </bookViews>
@@ -5411,7 +5411,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
